--- a/FunctionList.xlsx
+++ b/FunctionList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>File</t>
   </si>
@@ -126,6 +126,51 @@
   </si>
   <si>
     <t>deleteUser</t>
+  </si>
+  <si>
+    <t>rawdataController</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>processRawData</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>linking other route files</t>
+  </si>
+  <si>
+    <t>inventory</t>
+  </si>
+  <si>
+    <t>Inventory routing</t>
+  </si>
+  <si>
+    <t>modules</t>
+  </si>
+  <si>
+    <t>rawData</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>billCalculationService</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>dateDiff</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>calculateAmount</t>
   </si>
 </sst>
 </file>
@@ -452,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,6 +666,73 @@
         <v>33</v>
       </c>
     </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
